--- a/results/multilabel_native/multilabel_native.xlsx
+++ b/results/multilabel_native/multilabel_native.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,18 +444,24 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>41464</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>41465</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>41468</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>41470</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>41471</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>41473</v>
       </c>
     </row>
@@ -490,6 +496,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,6 +538,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -531,25 +557,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0.309 (0.278 Â± 0.025)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.332 (0.253 Â± 0.033)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0.518 (0.462 Â± 0.033)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.639 (0.567 Â± 0.037)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.711 (0.677 Â± 0.016)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>0.758 (0.728 Â± 0.020)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>0.248 (0.234 Â± 0.009)</t>
         </is>
@@ -586,6 +622,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -595,25 +641,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>0.799 (0.716 Â± 0.034)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.679 (0.565 Â± 0.068)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>0.739 (0.690 Â± 0.026)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.658 (0.625 Â± 0.020)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.807 (0.775 Â± 0.015)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>0.816 (0.791 Â± 0.016)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>0.630 (0.597 Â± 0.019)</t>
         </is>
@@ -650,6 +706,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -659,25 +725,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0.739 (0.661 Â± 0.055)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>0.727 (0.651 Â± 0.031)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.538 (0.489 Â± 0.027)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.728 (0.684 Â± 0.022)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.744 (0.689 Â± 0.030)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>0.781 (0.667 Â± 0.037)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>0.576 (0.554 Â± 0.014)</t>
         </is>
@@ -714,6 +790,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -746,6 +832,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -778,6 +874,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -810,6 +916,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -842,6 +958,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -874,6 +1000,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -906,6 +1042,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -938,6 +1084,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -966,6 +1122,16 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -982,7 +1148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,18 +1163,24 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>41464</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>41465</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>41468</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>41470</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>41471</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>41473</v>
       </c>
     </row>
@@ -1043,6 +1215,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1075,6 +1257,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1084,25 +1276,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>00:00:13 (00:00:17 Â± 00:00:03)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00:00:45 (00:00:55 Â± 00:00:06)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>00:00:27 (00:00:38 Â± 00:00:10)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>00:01:48 (00:02:20 Â± 00:00:32)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>00:03:15 (00:03:49 Â± 00:00:36)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>00:01:07 (00:01:27 Â± 00:00:19)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>00:00:52 (00:01:07 Â± 00:00:15)</t>
         </is>
@@ -1139,6 +1341,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1148,25 +1360,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>00:04:56 (00:05:02 Â± 00:00:06)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>00:04:57 (00:05:01 Â± 00:00:03)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>00:04:57 (00:05:01 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>00:04:56 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>00:04:54 (00:05:01 Â± 00:00:03)</t>
         </is>
@@ -1203,6 +1425,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1212,25 +1444,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>00:04:56 (00:05:05 Â± 00:00:04)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>00:04:56 (00:05:56 Â± 00:00:34)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>00:05:13 (00:15:08 Â± 00:11:49)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>00:05:06 (00:09:55 Â± 00:04:20)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>00:04:51 (00:07:35 Â± 00:02:34)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>00:05:08 (00:06:51 Â± 00:01:15)</t>
         </is>
@@ -1267,6 +1509,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1299,6 +1551,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1331,6 +1593,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1363,6 +1635,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1395,6 +1677,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1427,6 +1719,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1459,6 +1761,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1491,6 +1803,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1519,6 +1841,16 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1535,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1550,18 +1882,24 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>41464</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>41465</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>41468</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>41470</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>41471</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>41473</v>
       </c>
     </row>
@@ -1596,6 +1934,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1628,6 +1976,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1642,20 +2000,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>00:00:03 (00:00:03 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>00:00:10 (00:00:10 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
@@ -1692,6 +2060,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1701,25 +2079,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:06 Â± 00:00:04)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:04 Â± 00:00:02)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:05 Â± 00:00:06)</t>
         </is>
@@ -1756,6 +2144,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1770,20 +2168,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
@@ -1820,6 +2228,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1852,6 +2270,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1884,6 +2312,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1916,6 +2354,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1948,6 +2396,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1980,6 +2438,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2012,6 +2480,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2044,6 +2522,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2072,6 +2560,16 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2088,7 +2586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,18 +2601,24 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>41464</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>41465</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>41468</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>41470</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>41471</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>41473</v>
       </c>
     </row>
@@ -2149,6 +2653,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2181,6 +2695,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2213,6 +2737,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2245,6 +2779,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2277,6 +2821,16 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2309,6 +2863,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2318,25 +2882,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>[2, 3, 5, 7, 11, 13, 17, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>[31, 37]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>[37]</t>
         </is>
@@ -2373,6 +2947,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2405,6 +2989,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2437,6 +3031,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2469,6 +3073,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2501,6 +3115,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2533,6 +3157,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2565,6 +3199,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2597,6 +3241,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2625,6 +3279,16 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2641,7 +3305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2656,18 +3320,24 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>41464</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>41465</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>41468</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>41470</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>41471</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>41473</v>
       </c>
     </row>
@@ -2702,6 +3372,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2734,6 +3414,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2742,18 +3432,24 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
         <v>19</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>43</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>43</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2788,6 +3484,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2796,18 +3502,24 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>71</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>67</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>19</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>19</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2842,6 +3554,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2850,18 +3572,26 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>67</v>
       </c>
-      <c r="D8" t="n">
-        <v>31</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>71</v>
+      </c>
+      <c r="G8" t="n">
         <v>37</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2896,6 +3626,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2928,6 +3668,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2960,6 +3710,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2992,6 +3752,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3024,6 +3794,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3056,6 +3836,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3088,6 +3878,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3120,6 +3920,16 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3148,6 +3958,16 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/results/multilabel_native/multilabel_native.xlsx
+++ b/results/multilabel_native/multilabel_native.xlsx
@@ -515,37 +515,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.341 (0.269 ± 0.053)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.101 (0.054 ± 0.025)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.282 (0.242 ± 0.023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.421 (0.383 ± 0.019)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.399 (0.350 ± 0.021)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.339 (0.292 ± 0.020)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.272 (0.244 ± 0.013)</t>
         </is>
       </c>
     </row>
@@ -557,37 +557,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.309 (0.278 Â± 0.025)</t>
+          <t>0.309 (0.278 ± 0.025)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.332 (0.253 Â± 0.033)</t>
+          <t>0.332 (0.253 ± 0.033)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.518 (0.462 Â± 0.033)</t>
+          <t>0.518 (0.462 ± 0.033)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.639 (0.567 Â± 0.037)</t>
+          <t>0.639 (0.567 ± 0.037)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.711 (0.677 Â± 0.016)</t>
+          <t>0.711 (0.677 ± 0.016)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.758 (0.728 Â± 0.020)</t>
+          <t>0.758 (0.728 ± 0.020)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.248 (0.234 Â± 0.009)</t>
+          <t>0.248 (0.234 ± 0.009)</t>
         </is>
       </c>
     </row>
@@ -641,37 +641,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.799 (0.716 Â± 0.034)</t>
+          <t>0.799 (0.716 ± 0.034)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.679 (0.565 Â± 0.068)</t>
+          <t>0.679 (0.565 ± 0.068)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.739 (0.690 Â± 0.026)</t>
+          <t>0.739 (0.690 ± 0.026)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.658 (0.625 Â± 0.020)</t>
+          <t>0.658 (0.625 ± 0.020)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.807 (0.775 Â± 0.015)</t>
+          <t>0.807 (0.775 ± 0.015)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.816 (0.791 Â± 0.016)</t>
+          <t>0.816 (0.791 ± 0.016)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.630 (0.597 Â± 0.019)</t>
+          <t>0.630 (0.597 ± 0.019)</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.739 (0.661 Â± 0.055)</t>
+          <t>0.739 (0.661 ± 0.055)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,27 +735,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.727 (0.651 Â± 0.031)</t>
+          <t>0.727 (0.651 ± 0.031)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.538 (0.489 Â± 0.027)</t>
+          <t>0.538 (0.489 ± 0.027)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.744 (0.689 Â± 0.030)</t>
+          <t>0.744 (0.689 ± 0.030)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.781 (0.667 Â± 0.037)</t>
+          <t>0.781 (0.667 ± 0.037)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.576 (0.554 Â± 0.014)</t>
+          <t>0.576 (0.554 ± 0.014)</t>
         </is>
       </c>
     </row>
@@ -1234,37 +1234,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:42 (00:01:54 ± 00:00:08)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:03:57 (00:04:38 ± 00:00:18)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:10 (00:01:17 ± 00:00:07)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:54 (00:02:06 ± 00:00:06)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:02:39 (00:02:48 ± 00:00:07)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:03:03 (00:03:31 ± 00:00:25)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:52 (00:05:01 ± 00:00:03)</t>
         </is>
       </c>
     </row>
@@ -1276,37 +1276,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:00:13 (00:00:17 Â± 00:00:03)</t>
+          <t>00:00:13 (00:00:17 ± 00:00:03)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:45 (00:00:55 Â± 00:00:06)</t>
+          <t>00:00:45 (00:00:55 ± 00:00:06)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:38 Â± 00:00:10)</t>
+          <t>00:00:27 (00:00:38 ± 00:00:10)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:01:48 (00:02:20 Â± 00:00:32)</t>
+          <t>00:01:48 (00:02:20 ± 00:00:32)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:03:15 (00:03:49 Â± 00:00:36)</t>
+          <t>00:03:15 (00:03:49 ± 00:00:36)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:01:07 (00:01:27 Â± 00:00:19)</t>
+          <t>00:01:07 (00:01:27 ± 00:00:19)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:00:52 (00:01:07 Â± 00:00:15)</t>
+          <t>00:00:52 (00:01:07 ± 00:00:15)</t>
         </is>
       </c>
     </row>
@@ -1360,37 +1360,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:02 Â± 00:00:06)</t>
+          <t>00:04:56 (00:05:02 ± 00:00:06)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:01 Â± 00:00:03)</t>
+          <t>00:04:57 (00:05:01 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:01 Â± 00:00:01)</t>
+          <t>00:04:57 (00:05:01 ± 00:00:01)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:04:54 (00:05:01 Â± 00:00:03)</t>
+          <t>00:04:54 (00:05:01 ± 00:00:03)</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1454,27 +1454,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:05 Â± 00:00:04)</t>
+          <t>00:04:56 (00:05:05 ± 00:00:04)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:56 Â± 00:00:34)</t>
+          <t>00:04:56 (00:05:56 ± 00:00:34)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>00:05:06 (00:09:55 Â± 00:04:20)</t>
+          <t>00:05:06 (00:09:55 ± 00:04:20)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00:04:51 (00:07:35 Â± 00:02:34)</t>
+          <t>00:04:51 (00:07:35 ± 00:02:34)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00:05:08 (00:06:51 Â± 00:01:15)</t>
+          <t>00:05:08 (00:06:51 ± 00:01:15)</t>
         </is>
       </c>
     </row>
@@ -1953,37 +1953,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1995,37 +1995,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:03 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00:10 (00:00:10 Â± 00:00:00)</t>
+          <t>00:00:10 (00:00:10 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2079,37 +2079,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:06 Â± 00:00:04)</t>
+          <t>00:00:00 (00:00:06 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:04 Â± 00:00:02)</t>
+          <t>00:00:00 (00:00:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:05 Â± 00:00:06)</t>
+          <t>00:00:00 (00:00:05 ± 00:00:06)</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2173,27 +2173,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2672,37 +2672,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3389,40 +3389,26 @@
           <t>autogluon</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>43</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
